--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H2">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9894223333333333</v>
+        <v>0.8534766666666666</v>
       </c>
       <c r="N2">
-        <v>2.968267</v>
+        <v>2.56043</v>
       </c>
       <c r="O2">
-        <v>0.02008622060203138</v>
+        <v>0.01737434360524059</v>
       </c>
       <c r="P2">
-        <v>0.02008622060203139</v>
+        <v>0.01737434360524059</v>
       </c>
       <c r="Q2">
-        <v>2.156342086155</v>
+        <v>0.7824671235077776</v>
       </c>
       <c r="R2">
-        <v>19.407078775395</v>
+        <v>7.042204111569998</v>
       </c>
       <c r="S2">
-        <v>0.009731812018203995</v>
+        <v>0.004922945506259652</v>
       </c>
       <c r="T2">
-        <v>0.009731812018203997</v>
+        <v>0.004922945506259652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H3">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>104.397368</v>
       </c>
       <c r="O3">
-        <v>0.7064555054917406</v>
+        <v>0.7084105963118495</v>
       </c>
       <c r="P3">
-        <v>0.7064555054917406</v>
+        <v>0.7084105963118494</v>
       </c>
       <c r="Q3">
-        <v>75.84103394412</v>
+        <v>31.90382406109244</v>
       </c>
       <c r="R3">
-        <v>682.56930549708</v>
+        <v>287.134416549832</v>
       </c>
       <c r="S3">
-        <v>0.342279033716059</v>
+        <v>0.2007250944805893</v>
       </c>
       <c r="T3">
-        <v>0.342279033716059</v>
+        <v>0.2007250944805893</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H4">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.410647</v>
       </c>
       <c r="O4">
-        <v>0.2734582739062281</v>
+        <v>0.2742150600829099</v>
       </c>
       <c r="P4">
-        <v>0.2734582739062281</v>
+        <v>0.2742150600829099</v>
       </c>
       <c r="Q4">
-        <v>29.356920672855</v>
+        <v>12.34948923312811</v>
       </c>
       <c r="R4">
-        <v>264.212286055695</v>
+        <v>111.145403098153</v>
       </c>
       <c r="S4">
-        <v>0.1324910529066284</v>
+        <v>0.07769765744570056</v>
       </c>
       <c r="T4">
-        <v>0.1324910529066284</v>
+        <v>0.07769765744570056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.204665</v>
       </c>
       <c r="I5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9894223333333333</v>
+        <v>0.8534766666666666</v>
       </c>
       <c r="N5">
-        <v>2.968267</v>
+        <v>2.56043</v>
       </c>
       <c r="O5">
-        <v>0.02008622060203138</v>
+        <v>0.01737434360524059</v>
       </c>
       <c r="P5">
-        <v>0.02008622060203139</v>
+        <v>0.01737434360524059</v>
       </c>
       <c r="Q5">
-        <v>0.727114929506111</v>
+        <v>0.6272100451055554</v>
       </c>
       <c r="R5">
-        <v>6.544034365555</v>
+        <v>5.644890405949999</v>
       </c>
       <c r="S5">
-        <v>0.003281550666295571</v>
+        <v>0.003946134962439244</v>
       </c>
       <c r="T5">
-        <v>0.003281550666295571</v>
+        <v>0.003946134962439244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.204665</v>
       </c>
       <c r="I6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>104.397368</v>
       </c>
       <c r="O6">
-        <v>0.7064555054917406</v>
+        <v>0.7084105963118495</v>
       </c>
       <c r="P6">
-        <v>0.7064555054917406</v>
+        <v>0.7084105963118494</v>
       </c>
       <c r="Q6">
         <v>25.57346925796889</v>
@@ -818,10 +818,10 @@
         <v>230.16122332172</v>
       </c>
       <c r="S6">
-        <v>0.1154159152528745</v>
+        <v>0.1608972336097593</v>
       </c>
       <c r="T6">
-        <v>0.1154159152528745</v>
+        <v>0.1608972336097593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.204665</v>
       </c>
       <c r="I7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.410647</v>
       </c>
       <c r="O7">
-        <v>0.2734582739062281</v>
+        <v>0.2742150600829099</v>
       </c>
       <c r="P7">
-        <v>0.2734582739062281</v>
+        <v>0.2742150600829099</v>
       </c>
       <c r="Q7">
         <v>9.899104340917221</v>
@@ -880,10 +880,10 @@
         <v>89.09193906825499</v>
       </c>
       <c r="S7">
-        <v>0.04467576049873044</v>
+        <v>0.06228089304589095</v>
       </c>
       <c r="T7">
-        <v>0.04467576049873044</v>
+        <v>0.06228089304589095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H8">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I8">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J8">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9894223333333333</v>
+        <v>0.8534766666666666</v>
       </c>
       <c r="N8">
-        <v>2.968267</v>
+        <v>2.56043</v>
       </c>
       <c r="O8">
-        <v>0.02008622060203138</v>
+        <v>0.01737434360524059</v>
       </c>
       <c r="P8">
-        <v>0.02008622060203139</v>
+        <v>0.01737434360524059</v>
       </c>
       <c r="Q8">
-        <v>1.567180003933444</v>
+        <v>1.351850995032222</v>
       </c>
       <c r="R8">
-        <v>14.104620035401</v>
+        <v>12.16665895529</v>
       </c>
       <c r="S8">
-        <v>0.007072857917531822</v>
+        <v>0.008505263136541694</v>
       </c>
       <c r="T8">
-        <v>0.007072857917531822</v>
+        <v>0.008505263136541694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H9">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I9">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J9">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>104.397368</v>
       </c>
       <c r="O9">
-        <v>0.7064555054917406</v>
+        <v>0.7084105963118495</v>
       </c>
       <c r="P9">
-        <v>0.7064555054917406</v>
+        <v>0.7084105963118494</v>
       </c>
       <c r="Q9">
-        <v>55.11952516161156</v>
+        <v>55.11952516161157</v>
       </c>
       <c r="R9">
-        <v>496.075726454504</v>
+        <v>496.0757264545041</v>
       </c>
       <c r="S9">
-        <v>0.2487605565228072</v>
+        <v>0.3467882682215009</v>
       </c>
       <c r="T9">
-        <v>0.2487605565228072</v>
+        <v>0.3467882682215008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H10">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I10">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J10">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>40.410647</v>
       </c>
       <c r="O10">
-        <v>0.2734582739062281</v>
+        <v>0.2742150600829099</v>
       </c>
       <c r="P10">
-        <v>0.2734582739062281</v>
+        <v>0.2742150600829099</v>
       </c>
       <c r="Q10">
         <v>21.33593707183789</v>
@@ -1066,10 +1066,10 @@
         <v>192.023433646541</v>
       </c>
       <c r="S10">
-        <v>0.09629146050086923</v>
+        <v>0.1342365095913183</v>
       </c>
       <c r="T10">
-        <v>0.09629146050086922</v>
+        <v>0.1342365095913183</v>
       </c>
     </row>
   </sheetData>
